--- a/ZGB-template-master/DatosArchivos.xlsx
+++ b/ZGB-template-master/DatosArchivos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conta\Desktop\JuegoGB\proyectoJuego\ZGB-template-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21B2C33C-2667-46FF-BEFA-07DCCF0C4A99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD1D4B5-2220-46AA-B1ED-591F55D3D7EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0F1F83F2-5EAC-4D7A-9A59-4F9C9E2A640B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
   <si>
     <t>Nombre archivo</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>house1_3</t>
+  </si>
+  <si>
+    <t>SpriteStoneMan</t>
+  </si>
+  <si>
+    <t>stoneman</t>
   </si>
 </sst>
 </file>
@@ -550,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0F8EEF-EAE0-419B-A0DD-C0D427CF2B8C}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,18 +800,18 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -816,7 +822,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -827,7 +833,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -838,7 +844,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -849,7 +855,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -860,7 +866,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -871,7 +877,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -882,7 +888,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -893,7 +899,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -904,7 +910,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -915,7 +921,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -926,7 +932,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -937,7 +943,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -948,7 +954,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -959,7 +965,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -970,7 +976,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -981,7 +987,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -992,7 +998,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -1003,7 +1009,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -1014,7 +1020,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -1025,7 +1031,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -1036,29 +1042,29 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -1069,7 +1075,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -1080,12 +1086,34 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>52</v>
       </c>
-      <c r="B48">
-        <v>4</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
         <v>48</v>
       </c>
     </row>
